--- a/sites_in_prism_fao.xlsx
+++ b/sites_in_prism_fao.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Consumptive Use\CONS2_Python\cons2_v4 files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProgrammingFolder\Repositories\cons2-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="9960" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="9960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Agua Fria" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="88">
   <si>
     <t>HUC</t>
   </si>
@@ -324,6 +324,12 @@
   </si>
   <si>
     <t>Yavapi B</t>
+  </si>
+  <si>
+    <t>wx_units</t>
+  </si>
+  <si>
+    <t>metric</t>
   </si>
 </sst>
 </file>
@@ -651,10 +657,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet46"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,17 +751,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -767,10 +781,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet33"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,17 +875,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -883,10 +905,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet30"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,17 +999,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -999,10 +1029,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,17 +1123,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1115,10 +1153,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,17 +1247,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1231,10 +1277,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,17 +1371,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1347,10 +1401,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,17 +1495,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1463,10 +1525,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet29"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,17 +1619,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1579,10 +1649,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,17 +1743,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1695,10 +1773,10 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet26"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1789,17 +1867,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1811,10 +1897,10 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,17 +1991,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1927,10 +2021,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet48"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,17 +2115,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2043,10 +2145,10 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet41"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,17 +2239,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2159,10 +2269,10 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2253,17 +2363,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2275,10 +2393,10 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2369,17 +2487,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2391,10 +2517,10 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet38"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2485,17 +2611,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2507,10 +2641,10 @@
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet27"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2601,17 +2735,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2623,10 +2765,10 @@
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2717,17 +2859,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2739,10 +2889,10 @@
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2833,17 +2983,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2855,10 +3013,10 @@
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet28"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2949,17 +3107,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2971,10 +3137,10 @@
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3065,17 +3231,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3087,10 +3261,10 @@
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet42"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3181,17 +3355,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3203,10 +3385,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet47"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3297,17 +3479,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3319,10 +3509,10 @@
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3413,17 +3603,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3435,10 +3633,10 @@
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3529,17 +3727,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3551,10 +3757,10 @@
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet44"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3645,17 +3851,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3667,10 +3881,10 @@
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet45"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3761,17 +3975,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3783,10 +4005,10 @@
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3877,17 +4099,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3899,10 +4129,10 @@
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3993,17 +4223,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4015,10 +4253,10 @@
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4108,17 +4346,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4130,10 +4376,10 @@
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet39"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4224,17 +4470,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4246,10 +4500,10 @@
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet37"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4340,17 +4594,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4362,10 +4624,10 @@
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet49"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4456,17 +4718,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4478,10 +4748,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet40"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4572,17 +4842,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4593,10 +4871,10 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4687,17 +4965,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4709,10 +4995,10 @@
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet43"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4803,17 +5089,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4825,10 +5119,10 @@
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4919,17 +5213,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4941,10 +5243,10 @@
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5035,17 +5337,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -5056,10 +5366,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5147,17 +5457,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -5169,10 +5487,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5263,17 +5581,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -5285,10 +5611,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5379,17 +5705,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -5401,10 +5735,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5495,17 +5829,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>86</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -5517,10 +5859,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet34"/>
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5611,17 +5953,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
     </row>

--- a/sites_in_prism_fao.xlsx
+++ b/sites_in_prism_fao.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="9960" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="9960" firstSheet="39"/>
   </bookViews>
   <sheets>
     <sheet name="Agua Fria" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="87">
   <si>
     <t>HUC</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>State</t>
-  </si>
-  <si>
-    <t>NOUT</t>
   </si>
   <si>
     <t>NPRE</t>
@@ -657,10 +654,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet46"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,16 +666,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,77 +696,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15070102</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -781,10 +771,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet33"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,16 +783,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,77 +813,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15040002</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -905,10 +888,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet30"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,16 +900,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -948,77 +930,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15070104</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1029,10 +1005,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,16 +1017,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1072,77 +1047,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15010007</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1153,10 +1122,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,16 +1134,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1196,77 +1164,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>-99</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1277,10 +1239,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,16 +1251,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1320,77 +1281,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15030102</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1401,10 +1356,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,16 +1368,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1444,77 +1398,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15020002</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1525,10 +1473,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet29"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,16 +1485,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1568,77 +1515,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15020008</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1649,10 +1590,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,16 +1602,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1692,77 +1632,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15020005</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1773,10 +1707,10 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet26"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1785,16 +1719,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1816,77 +1749,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15030105</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1897,10 +1824,10 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,16 +1836,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1940,77 +1866,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15030104</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2021,10 +1941,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet48"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2033,16 +1953,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2064,77 +1983,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>-99</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2145,10 +2058,10 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet41"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2157,16 +2070,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2188,77 +2100,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15070101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2269,10 +2175,10 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2281,16 +2187,15 @@
     <col min="2" max="2" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2312,77 +2217,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15060101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2393,10 +2292,10 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2405,16 +2304,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2436,77 +2334,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15050100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2517,10 +2409,10 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet38"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2529,16 +2421,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2560,77 +2451,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15050303</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2641,10 +2526,10 @@
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet27"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2653,16 +2538,15 @@
     <col min="2" max="2" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2684,77 +2568,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15050303</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2765,10 +2643,10 @@
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2777,16 +2655,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2808,77 +2685,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15060202</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2889,10 +2760,10 @@
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2901,16 +2772,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2932,77 +2802,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15030105</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3013,10 +2877,10 @@
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet28"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3025,16 +2889,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3056,77 +2919,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15030103</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3137,10 +2994,10 @@
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3149,16 +3006,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3180,77 +3036,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15040005</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3261,10 +3111,10 @@
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet42"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3273,16 +3123,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3304,77 +3153,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15040006</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3385,10 +3228,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet47"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3397,16 +3240,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3428,77 +3270,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>-99</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3509,10 +3345,10 @@
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3521,16 +3357,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3552,77 +3387,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15050201</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3633,10 +3462,10 @@
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3645,16 +3474,15 @@
     <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3676,77 +3504,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15050201</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3757,10 +3579,10 @@
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet44"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3769,16 +3591,15 @@
     <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3800,77 +3621,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>-99</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3881,10 +3696,10 @@
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet45"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3893,16 +3708,15 @@
     <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3924,77 +3738,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15050202</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4005,10 +3813,10 @@
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4017,16 +3825,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4048,77 +3855,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15060105</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4129,10 +3930,10 @@
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4141,16 +3942,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4172,77 +3972,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15050301</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4253,10 +4047,10 @@
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4264,16 +4058,15 @@
     <col min="1" max="2" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4295,77 +4088,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15050301</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4376,10 +4163,10 @@
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet39"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4388,16 +4175,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4419,77 +4205,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15060202</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4500,10 +4280,10 @@
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet37"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4512,16 +4292,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4543,77 +4322,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15060202</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4624,10 +4397,10 @@
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet49"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4636,16 +4409,15 @@
     <col min="2" max="2" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4667,77 +4439,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>-99</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4748,10 +4514,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet40"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4760,16 +4526,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4791,77 +4556,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15030105</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4871,10 +4630,10 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4883,16 +4642,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4914,77 +4672,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>-99</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4995,10 +4747,10 @@
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet43"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5007,16 +4759,15 @@
     <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5038,77 +4789,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15040006</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5119,10 +4864,10 @@
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5131,16 +4876,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5162,77 +4906,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15050201</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5243,10 +4981,10 @@
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5255,16 +4993,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5286,77 +5023,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15030108</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5366,10 +5097,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5378,16 +5109,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5409,74 +5139,68 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -5487,10 +5211,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5499,16 +5223,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5530,77 +5253,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15070101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5611,10 +5328,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5623,16 +5340,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5654,77 +5370,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15070101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5735,10 +5445,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5747,16 +5457,15 @@
     <col min="2" max="2" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5778,77 +5487,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15070201</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5859,10 +5562,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet34"/>
-  <dimension ref="A2:I9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5871,16 +5574,15 @@
     <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5902,77 +5604,71 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>15050201</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
